--- a/Playoff Predictions/Weekconf_matrix.xlsx
+++ b/Playoff Predictions/Weekconf_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Probabilities" sheetId="3" r:id="rId3"/>
     <sheet name="Bracket" sheetId="4" r:id="rId4"/>
     <sheet name="Fancy Bracket" sheetId="5" r:id="rId5"/>
+    <sheet name="Fancy Bracket (2)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
   <si>
     <t>Chance of Winning</t>
   </si>
@@ -503,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,6 +621,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1743,10 +1756,10 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="44"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -1763,10 +1776,10 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -1783,10 +1796,10 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1803,10 +1816,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2137,4 +2150,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="11"/>
+    <col min="10" max="10" width="1.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="11"/>
+    <col min="12" max="12" width="9.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20">
+        <v>23</v>
+      </c>
+      <c r="I8" s="21">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="38">
+        <v>45</v>
+      </c>
+      <c r="F10" s="37">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="38">
+        <v>28</v>
+      </c>
+      <c r="L10" s="37">
+        <v>22</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="38">
+        <v>35</v>
+      </c>
+      <c r="C13" s="37">
+        <v>31</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="37">
+        <v>13</v>
+      </c>
+      <c r="F13" s="38">
+        <v>24</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="38">
+        <v>31</v>
+      </c>
+      <c r="L13" s="37">
+        <v>17</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="38">
+        <v>26</v>
+      </c>
+      <c r="O13" s="37">
+        <v>21</v>
+      </c>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="37">
+        <v>17</v>
+      </c>
+      <c r="C16" s="38">
+        <v>30</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38">
+        <v>26</v>
+      </c>
+      <c r="F16" s="37">
+        <v>10</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38">
+        <v>27</v>
+      </c>
+      <c r="L16" s="37">
+        <v>16</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="38">
+        <v>24</v>
+      </c>
+      <c r="O16" s="37">
+        <v>20</v>
+      </c>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="45"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>